--- a/Students.xlsx
+++ b/Students.xlsx
@@ -25,7 +25,7 @@
     <t>Keshav Somani</t>
   </si>
   <si>
-    <t>22MCA1255</t>
+    <t>22MCA125</t>
   </si>
   <si>
     <t>Block 2</t>
